--- a/OrangeHRM - Automation Testing - Requirements Traceability Matrix (RTM).xlsx
+++ b/OrangeHRM - Automation Testing - Requirements Traceability Matrix (RTM).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
   <si>
     <t>Requirement Name / Description</t>
   </si>
@@ -311,55 +311,49 @@
     <t>TC - 027 to TC - 097</t>
   </si>
   <si>
-    <t>TC - 098 to TC - 107</t>
-  </si>
-  <si>
-    <t>TC - 108 to TC - 117</t>
-  </si>
-  <si>
-    <t>TC - 118 to TC - 125</t>
-  </si>
-  <si>
-    <t>TC - 126 to TC - 134</t>
-  </si>
-  <si>
-    <t>TC - 135 to TC - 144</t>
-  </si>
-  <si>
-    <t>TC - 145 to TC - 160</t>
-  </si>
-  <si>
-    <t>TC - 161 to TC - 184</t>
-  </si>
-  <si>
-    <t>TC - 185 to TC - 194</t>
-  </si>
-  <si>
-    <t>TC - 195 to TC - 199</t>
-  </si>
-  <si>
-    <t>TC - 200 to TC - 204</t>
-  </si>
-  <si>
-    <t>Bug - 01 / Bug - 02</t>
-  </si>
-  <si>
-    <t>Bug - 03 / Bug - 04</t>
-  </si>
-  <si>
-    <t>Bug - 05 / Bug - 06</t>
-  </si>
-  <si>
-    <t>Bug - 07</t>
-  </si>
-  <si>
-    <t>Bug - 08 / Bug - 09</t>
-  </si>
-  <si>
-    <t>Bug - 10 / Bug - 11</t>
-  </si>
-  <si>
-    <t>Bug - 12 / Bug - 13 / Bug - 14</t>
+    <t>TC - 186 to TC - 190</t>
+  </si>
+  <si>
+    <t>TC - 181 to TC - 185</t>
+  </si>
+  <si>
+    <t>TC - 171 to TC - 180</t>
+  </si>
+  <si>
+    <t>TC - 147 to TC - 170</t>
+  </si>
+  <si>
+    <t>TC - 131 to TC - 146</t>
+  </si>
+  <si>
+    <t>TC - 124 to TC - 130</t>
+  </si>
+  <si>
+    <t>TC - 118 to TC - 123</t>
+  </si>
+  <si>
+    <t>TC - 112 to TC - 117</t>
+  </si>
+  <si>
+    <t>TC - 105 to TC - 111</t>
+  </si>
+  <si>
+    <t>TC - 098 to TC - 104</t>
+  </si>
+  <si>
+    <t>Bug - 05</t>
+  </si>
+  <si>
+    <t>Bug - 6</t>
+  </si>
+  <si>
+    <t>Bug - 1 / Bug - 2</t>
+  </si>
+  <si>
+    <t>Bug - 3 / Bug - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug - 7 / Bug - 8 / Bug - 9 </t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1172,7 +1166,7 @@
         <v>48</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1204,7 +1198,7 @@
         <v>48</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1230,13 +1224,13 @@
         <v>55</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>48</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1262,13 +1256,13 @@
         <v>55</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1294,13 +1288,13 @@
         <v>55</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>48</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1326,13 +1320,13 @@
         <v>55</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>48</v>
+        <v>91</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1358,7 +1352,7 @@
         <v>55</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>47</v>
@@ -1390,13 +1384,13 @@
         <v>54</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>48</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -1422,7 +1416,7 @@
         <v>54</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>47</v>
@@ -1454,7 +1448,7 @@
         <v>53</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>47</v>
@@ -1486,7 +1480,7 @@
         <v>53</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>47</v>
@@ -1518,7 +1512,7 @@
         <v>53</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>47</v>
